--- a/NTFxTest/TestSource/通讯录.xlsx
+++ b/NTFxTest/TestSource/通讯录.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0F78091-115F-4573-8F7F-4F0E3B316FF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>AutoID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -41,13 +43,29 @@
   </si>
   <si>
     <t>HeaderPhoto</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标题1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标题2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bb</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
@@ -125,7 +143,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -152,7 +176,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -227,6 +251,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -262,6 +303,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -437,14 +495,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="18" customWidth="1"/>
     <col min="4" max="4" width="12" style="1" customWidth="1"/>
@@ -475,14 +533,17 @@
       <c r="B2" t="s">
         <v>4</v>
       </c>
+      <c r="C2">
+        <v>1111</v>
+      </c>
       <c r="D2" s="1">
         <v>43831</v>
       </c>
       <c r="E2" s="2">
-        <v>43831.506261574075</v>
+        <v>44562.506261574075</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="77" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="76.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -491,9 +552,6 @@
       </c>
       <c r="D4" s="1">
         <v>43862</v>
-      </c>
-      <c r="E4" s="2">
-        <v>43845.54792824074</v>
       </c>
     </row>
   </sheetData>
@@ -502,4 +560,45 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6FC6F9C-B0D5-4F37-B36E-0D2B818C128D}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>11</v>
+      </c>
+      <c r="B2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>